--- a/YSteam開発資料まとめ/設計書12日までに/products/内部設計書_1_リクエスト一覧_よう.xlsx
+++ b/YSteam開発資料まとめ/設計書12日までに/products/内部設計書_1_リクエスト一覧_よう.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it研修学习期间的成果\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書12日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F4FE9-395B-4C2E-8F8A-3D1E10E925F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35061105-1519-4B90-ADB4-B93BB15EB16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,23 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'１．リクエスト一覧'!$1:$3</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'１．リクエスト一覧'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>システム名</t>
   </si>
@@ -289,6 +300,50 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>問題画面にアクセス</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果画面にアクセス</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/quiz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/result</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスすると、ウェルカム画面経由しているか変数をチェック→×なら/のgetを飛ばす</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -751,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -910,10 +965,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1262,10 +1323,10 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG12" sqref="BG12:CI12"/>
+      <selection activeCell="AQ11" sqref="AQ11:BF11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0.6640625" style="2"/>
     <col min="2" max="57" width="1.6640625" style="2" customWidth="1"/>
@@ -1276,7 +1337,7 @@
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1">
+    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -2312,7 +2373,7 @@
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="51" t="s">
         <v>3</v>
@@ -3348,7 +3409,7 @@
       <c r="AMI2" s="1"/>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3436,7 +3497,7 @@
       <c r="CH3" s="5"/>
       <c r="CI3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1">
+    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
@@ -3536,7 +3597,7 @@
       <c r="CH4" s="18"/>
       <c r="CI4" s="19"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1">
+    <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="21">
         <v>1</v>
       </c>
@@ -3636,7 +3697,7 @@
       <c r="CH5" s="23"/>
       <c r="CI5" s="24"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1">
+    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="21">
         <v>2</v>
       </c>
@@ -3736,7 +3797,7 @@
       <c r="CH6" s="23"/>
       <c r="CI6" s="24"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1">
+    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="21">
         <v>3</v>
       </c>
@@ -3836,7 +3897,7 @@
       <c r="CH7" s="23"/>
       <c r="CI7" s="24"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1">
+    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="21">
         <v>4</v>
       </c>
@@ -3936,7 +3997,7 @@
       <c r="CH8" s="23"/>
       <c r="CI8" s="24"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1">
+    <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="21">
         <v>5</v>
       </c>
@@ -4036,7 +4097,7 @@
       <c r="CH9" s="23"/>
       <c r="CI9" s="24"/>
     </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1">
+    <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="21">
         <v>6</v>
       </c>
@@ -4136,13 +4197,15 @@
       <c r="CH10" s="23"/>
       <c r="CI10" s="24"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1">
+    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="21">
         <v>7</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -4160,7 +4223,9 @@
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
       <c r="V11" s="29"/>
-      <c r="W11" s="22"/>
+      <c r="W11" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -4171,7 +4236,9 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
       <c r="AG11" s="32"/>
-      <c r="AH11" s="22"/>
+      <c r="AH11" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
@@ -4180,23 +4247,27 @@
       <c r="AN11" s="28"/>
       <c r="AO11" s="28"/>
       <c r="AP11" s="29"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="22"/>
+      <c r="AQ11" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="33"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="59"/>
+      <c r="BG11" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="BH11" s="23"/>
       <c r="BI11" s="23"/>
       <c r="BJ11" s="23"/>
@@ -4226,13 +4297,15 @@
       <c r="CH11" s="23"/>
       <c r="CI11" s="24"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1">
+    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="21">
         <v>8</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -4250,7 +4323,9 @@
       <c r="T12" s="28"/>
       <c r="U12" s="28"/>
       <c r="V12" s="29"/>
-      <c r="W12" s="22"/>
+      <c r="W12" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
@@ -4261,7 +4336,9 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="32"/>
-      <c r="AH12" s="22"/>
+      <c r="AH12" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="28"/>
       <c r="AK12" s="28"/>
@@ -4270,7 +4347,9 @@
       <c r="AN12" s="28"/>
       <c r="AO12" s="28"/>
       <c r="AP12" s="29"/>
-      <c r="AQ12" s="33"/>
+      <c r="AQ12" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="AR12" s="34"/>
       <c r="AS12" s="34"/>
       <c r="AT12" s="34"/>
@@ -4286,7 +4365,9 @@
       <c r="BD12" s="34"/>
       <c r="BE12" s="34"/>
       <c r="BF12" s="35"/>
-      <c r="BG12" s="22"/>
+      <c r="BG12" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="BH12" s="23"/>
       <c r="BI12" s="23"/>
       <c r="BJ12" s="23"/>
@@ -4316,7 +4397,7 @@
       <c r="CH12" s="23"/>
       <c r="CI12" s="24"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1">
+    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="21">
         <v>9</v>
       </c>
@@ -4406,7 +4487,7 @@
       <c r="CH13" s="23"/>
       <c r="CI13" s="24"/>
     </row>
-    <row r="14" spans="1:1024" ht="18" customHeight="1">
+    <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="21">
         <v>10</v>
       </c>
@@ -4496,7 +4577,7 @@
       <c r="CH14" s="23"/>
       <c r="CI14" s="24"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1">
+    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="21">
         <v>11</v>
       </c>
@@ -4586,7 +4667,7 @@
       <c r="CH15" s="23"/>
       <c r="CI15" s="24"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1">
+    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="21">
         <v>12</v>
       </c>
@@ -4676,7 +4757,7 @@
       <c r="CH16" s="23"/>
       <c r="CI16" s="24"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1">
+    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="21">
         <v>13</v>
       </c>
@@ -4766,7 +4847,7 @@
       <c r="CH17" s="23"/>
       <c r="CI17" s="24"/>
     </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1">
+    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="21">
         <v>14</v>
       </c>
@@ -4856,7 +4937,7 @@
       <c r="CH18" s="23"/>
       <c r="CI18" s="24"/>
     </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1">
+    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="21">
         <v>15</v>
       </c>
@@ -4946,7 +5027,7 @@
       <c r="CH19" s="23"/>
       <c r="CI19" s="24"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1">
+    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="21">
         <v>16</v>
       </c>
@@ -5036,7 +5117,7 @@
       <c r="CH20" s="23"/>
       <c r="CI20" s="24"/>
     </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1">
+    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="21">
         <v>17</v>
       </c>
@@ -5126,7 +5207,7 @@
       <c r="CH21" s="23"/>
       <c r="CI21" s="24"/>
     </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1">
+    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="21">
         <v>18</v>
       </c>
@@ -5216,7 +5297,7 @@
       <c r="CH22" s="23"/>
       <c r="CI22" s="24"/>
     </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1">
+    <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="21">
         <v>19</v>
       </c>
@@ -5306,7 +5387,7 @@
       <c r="CH23" s="23"/>
       <c r="CI23" s="24"/>
     </row>
-    <row r="24" spans="2:87" ht="18" customHeight="1" thickBot="1">
+    <row r="24" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="21">
         <v>20</v>
       </c>
@@ -5396,7 +5477,7 @@
       <c r="CH24" s="37"/>
       <c r="CI24" s="38"/>
     </row>
-    <row r="25" spans="2:87" ht="18" customHeight="1">
+    <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="39" t="s">
         <v>7</v>
       </c>
@@ -5486,7 +5567,7 @@
       <c r="CH25" s="7"/>
       <c r="CI25" s="8"/>
     </row>
-    <row r="26" spans="2:87" ht="18" customHeight="1">
+    <row r="26" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -5574,7 +5655,7 @@
       <c r="CH26" s="11"/>
       <c r="CI26" s="12"/>
     </row>
-    <row r="27" spans="2:87" ht="18" customHeight="1">
+    <row r="27" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -5662,7 +5743,7 @@
       <c r="CH27" s="11"/>
       <c r="CI27" s="12"/>
     </row>
-    <row r="28" spans="2:87" ht="18" customHeight="1">
+    <row r="28" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -5750,7 +5831,7 @@
       <c r="CH28" s="11"/>
       <c r="CI28" s="12"/>
     </row>
-    <row r="29" spans="2:87" ht="18" customHeight="1">
+    <row r="29" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -5838,7 +5919,7 @@
       <c r="CH29" s="11"/>
       <c r="CI29" s="12"/>
     </row>
-    <row r="30" spans="2:87" ht="18" customHeight="1" thickBot="1">
+    <row r="30" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>

--- a/YSteam開発資料まとめ/設計書12日までに/products/内部設計書_1_リクエスト一覧_よう.xlsx
+++ b/YSteam開発資料まとめ/設計書12日までに/products/内部設計書_1_リクエスト一覧_よう.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書12日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35061105-1519-4B90-ADB4-B93BB15EB16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5F74A7-4DF2-4CD6-8966-A885B645AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>システム名</t>
   </si>
@@ -224,19 +224,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チーム名でウエルカム画面に遷移</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/quizChallenge</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -274,29 +261,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>キャンセルをクリックするとウエルカム画面に飛ぶ</t>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スタットに戻る</t>
     <rPh sb="5" eb="6">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スタットに戻るボタンをクリックするとウエルカム画面に飛ぶ</t>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -340,6 +307,46 @@
       <t>ヘンスウ</t>
     </rPh>
     <rPh sb="39" eb="40">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム名で遷移</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るをクリックするとウエルカム画面に飛ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタートに戻るボタンをクリックするとウエルカム画面に飛ぶ</t>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
       <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -903,6 +910,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -964,12 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1323,7 +1330,7 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11:BF11"/>
+      <selection activeCell="BG12" sqref="BG12:CI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1339,102 +1346,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="47" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="48"/>
-      <c r="BS1" s="48"/>
-      <c r="BT1" s="48"/>
-      <c r="BU1" s="48"/>
-      <c r="BV1" s="48"/>
-      <c r="BW1" s="48"/>
-      <c r="BX1" s="49" t="s">
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="50"/>
+      <c r="BX1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="50"/>
-      <c r="CI1" s="50"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="52"/>
+      <c r="CC1" s="52"/>
+      <c r="CD1" s="52"/>
+      <c r="CE1" s="52"/>
+      <c r="CF1" s="52"/>
+      <c r="CG1" s="52"/>
+      <c r="CH1" s="52"/>
+      <c r="CI1" s="52"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2375,102 +2384,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="53" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="53"/>
-      <c r="BK2" s="53"/>
-      <c r="BL2" s="54" t="s">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="55"/>
-      <c r="BS2" s="55"/>
-      <c r="BT2" s="55"/>
-      <c r="BU2" s="55"/>
-      <c r="BV2" s="55"/>
-      <c r="BW2" s="55"/>
-      <c r="BX2" s="56" t="s">
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="57">
+        <v>44512</v>
+      </c>
+      <c r="BQ2" s="57"/>
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57"/>
+      <c r="BT2" s="57"/>
+      <c r="BU2" s="57"/>
+      <c r="BV2" s="57"/>
+      <c r="BW2" s="57"/>
+      <c r="BX2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="56"/>
-      <c r="BZ2" s="56"/>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57"/>
-      <c r="CD2" s="57"/>
-      <c r="CE2" s="57"/>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="57"/>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57"/>
+      <c r="BY2" s="58"/>
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="58"/>
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="59"/>
+      <c r="CD2" s="59"/>
+      <c r="CE2" s="59"/>
+      <c r="CF2" s="59"/>
+      <c r="CG2" s="59"/>
+      <c r="CH2" s="59"/>
+      <c r="CI2" s="59"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3704,7 +3715,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="22" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -3824,7 +3835,7 @@
       <c r="U7" s="28"/>
       <c r="V7" s="29"/>
       <c r="W7" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
@@ -3948,7 +3959,7 @@
       <c r="AO8" s="28"/>
       <c r="AP8" s="29"/>
       <c r="AQ8" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AR8" s="34"/>
       <c r="AS8" s="34"/>
@@ -3966,7 +3977,7 @@
       <c r="BE8" s="34"/>
       <c r="BF8" s="35"/>
       <c r="BG8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BH8" s="23"/>
       <c r="BI8" s="23"/>
@@ -4004,7 +4015,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -4066,7 +4077,7 @@
       <c r="BE9" s="34"/>
       <c r="BF9" s="35"/>
       <c r="BG9" s="22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BH9" s="23"/>
       <c r="BI9" s="23"/>
@@ -4104,7 +4115,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
@@ -4166,7 +4177,7 @@
       <c r="BE10" s="34"/>
       <c r="BF10" s="35"/>
       <c r="BG10" s="22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BH10" s="23"/>
       <c r="BI10" s="23"/>
@@ -4204,7 +4215,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -4224,7 +4235,7 @@
       <c r="U11" s="28"/>
       <c r="V11" s="29"/>
       <c r="W11" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
@@ -4247,7 +4258,7 @@
       <c r="AN11" s="28"/>
       <c r="AO11" s="28"/>
       <c r="AP11" s="29"/>
-      <c r="AQ11" s="58" t="s">
+      <c r="AQ11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="AR11" s="33"/>
@@ -4264,9 +4275,9 @@
       <c r="BC11" s="33"/>
       <c r="BD11" s="33"/>
       <c r="BE11" s="33"/>
-      <c r="BF11" s="59"/>
+      <c r="BF11" s="37"/>
       <c r="BG11" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BH11" s="23"/>
       <c r="BI11" s="23"/>
@@ -4304,7 +4315,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -4324,7 +4335,7 @@
       <c r="U12" s="28"/>
       <c r="V12" s="29"/>
       <c r="W12" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
@@ -4366,7 +4377,7 @@
       <c r="BE12" s="34"/>
       <c r="BF12" s="35"/>
       <c r="BG12" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BH12" s="23"/>
       <c r="BI12" s="23"/>
@@ -5411,26 +5422,26 @@
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
       <c r="V24" s="29"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="43"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="45"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="34"/>
       <c r="AS24" s="34"/>
@@ -5447,42 +5458,42 @@
       <c r="BD24" s="34"/>
       <c r="BE24" s="34"/>
       <c r="BF24" s="35"/>
-      <c r="BG24" s="36"/>
-      <c r="BH24" s="37"/>
-      <c r="BI24" s="37"/>
-      <c r="BJ24" s="37"/>
-      <c r="BK24" s="37"/>
-      <c r="BL24" s="37"/>
-      <c r="BM24" s="37"/>
-      <c r="BN24" s="37"/>
-      <c r="BO24" s="37"/>
-      <c r="BP24" s="37"/>
-      <c r="BQ24" s="37"/>
-      <c r="BR24" s="37"/>
-      <c r="BS24" s="37"/>
-      <c r="BT24" s="37"/>
-      <c r="BU24" s="37"/>
-      <c r="BV24" s="37"/>
-      <c r="BW24" s="37"/>
-      <c r="BX24" s="37"/>
-      <c r="BY24" s="37"/>
-      <c r="BZ24" s="37"/>
-      <c r="CA24" s="37"/>
-      <c r="CB24" s="37"/>
-      <c r="CC24" s="37"/>
-      <c r="CD24" s="37"/>
-      <c r="CE24" s="37"/>
-      <c r="CF24" s="37"/>
-      <c r="CG24" s="37"/>
-      <c r="CH24" s="37"/>
-      <c r="CI24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="39"/>
+      <c r="BZ24" s="39"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="39"/>
+      <c r="CF24" s="39"/>
+      <c r="CG24" s="39"/>
+      <c r="CH24" s="39"/>
+      <c r="CI24" s="40"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
